--- a/project-management-dashboard/Project-Management-Dashboard.xlsx
+++ b/project-management-dashboard/Project-Management-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patriciaquigley/Desktop/project-management-data-bootcamp/project-management-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA884BFD-333C-7E45-A094-569D87CF4633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E05FB8B-5449-734D-ABD9-D4C03EE6CF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37680" yWindow="720" windowWidth="31000" windowHeight="19920" activeTab="2" xr2:uid="{F25E769B-028A-A44A-990F-D31BBCC4FEB2}"/>
   </bookViews>
@@ -6455,7 +6455,7 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
